--- a/arquivo excel/rank_notas_temporada.xlsx
+++ b/arquivo excel/rank_notas_temporada.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\arquivo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1585B92A-FD5E-404F-936C-E8B75041E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D23715-8CD1-4C70-9B7C-15544F52D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rank_notas_temporada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Season</t>
   </si>
@@ -41,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -79,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -88,6 +102,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +271,7 @@
             <c:numRef>
               <c:f>rank_notas_temporada!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>28.3</c:v>
@@ -279,7 +294,7 @@
                 <c:pt idx="6">
                   <c:v>93.14</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>3080</c:v>
                 </c:pt>
               </c:numCache>
@@ -717,7 +732,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -829,7 +844,931 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Média da Avalição de cada temporada</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank_notas_temporada!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>média de comentários de usuários</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.1883116883116882E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3961038961038962E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8636363636363635E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0324675324675325E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3409090909090909E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5649350649350651E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0240259740259741E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C84E-4A52-8192-424102CA2F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank_notas_temporada!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>média de comentários dos críticos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42034724337496199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38074931465123363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4492841912884557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46299116661590012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55741699664940603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70514773073408465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82241851964666468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C84E-4A52-8192-424102CA2F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank_notas_temporada!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>média dos espectadores EUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2097056616359543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31685149670641205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41407487701159013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57083298590844656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57366797298424077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64104060702076204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85633286083548732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C84E-4A52-8192-424102CA2F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rank_notas_temporada!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>classificação média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$A$11:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rank_notas_temporada!$E$11:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.97849462365591389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96344086021505382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9731182795698925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94946236559139774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97419354838709671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97849462365591389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69139784946236549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C84E-4A52-8192-424102CA2F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="393100656"/>
+        <c:axId val="393102736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="393100656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393102736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393102736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393100656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1418,20 +2357,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1451,6 +2886,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4977A01-A732-46F8-96C8-3B1087810F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1660,10 +3131,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1672,7 +3143,7 @@
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,11 +3160,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>28.3</v>
       </c>
       <c r="C2" s="5">
@@ -1706,11 +3177,11 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>19.7</v>
       </c>
       <c r="C3" s="5">
@@ -1723,11 +3194,11 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>27.3</v>
       </c>
       <c r="C4" s="5">
@@ -1740,11 +3211,11 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>31.8</v>
       </c>
       <c r="C5" s="5">
@@ -1757,11 +3228,11 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>41.3</v>
       </c>
       <c r="C6" s="5">
@@ -1774,11 +3245,11 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>79</v>
       </c>
       <c r="C7" s="5">
@@ -1791,11 +3262,11 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>93.14</v>
       </c>
       <c r="C8" s="5">
@@ -1808,11 +3279,11 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>3080</v>
       </c>
       <c r="C9" s="5">
@@ -1823,6 +3294,191 @@
       </c>
       <c r="E9" s="6">
         <v>6.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>B2/$B$9</f>
+        <v>9.1883116883116882E-3</v>
+      </c>
+      <c r="C11">
+        <f>C2/$C$9</f>
+        <v>0.42034724337496199</v>
+      </c>
+      <c r="D11">
+        <f>D2/$D$9</f>
+        <v>0.2097056616359543</v>
+      </c>
+      <c r="E11">
+        <f>E2/$E$5</f>
+        <v>0.97849462365591389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B18" si="0">B3/$B$9</f>
+        <v>6.3961038961038962E-3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C18" si="1">C3/$C$9</f>
+        <v>0.38074931465123363</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D18" si="2">D3/$D$9</f>
+        <v>0.31685149670641205</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E18" si="3">E3/$E$5</f>
+        <v>0.96344086021505382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8.8636363636363635E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.4492841912884557</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.41407487701159013</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.9731182795698925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.0324675324675325E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.46299116661590012</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.57083298590844656</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.3409090909090909E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.55741699664940603</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.57366797298424077</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.94946236559139774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.5649350649350651E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.70514773073408465</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.64104060702076204</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.97419354838709671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.0240259740259741E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.82241851964666468</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.85633286083548732</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.97849462365591389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.69139784946236549</v>
       </c>
     </row>
   </sheetData>

--- a/arquivo excel/rank_notas_temporada.xlsx
+++ b/arquivo excel/rank_notas_temporada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documentos\Estudo Resilia\Módulo 3\Projeto de Final de Módulo\GoT_Data_Processing_Resilia\arquivo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D23715-8CD1-4C70-9B7C-15544F52D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE81F8-FBB4-4D33-B002-7E2EAAF28896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rank_notas_temporada" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -690,7 +690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="757578704"/>
@@ -759,7 +759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="757584944"/>
@@ -800,7 +800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -833,7 +833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -887,7 +887,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Média da Avalição de cada temporada</a:t>
+              <a:t>Média da Avaliação de cada temporada</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -926,7 +926,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1577,7 +1577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393102736"/>
@@ -1635,7 +1635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393100656"/>
@@ -1676,7 +1676,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1717,7 +1717,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
